--- a/Hardware/FPGA/DDR Pin Delays.xlsx
+++ b/Hardware/FPGA/DDR Pin Delays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Desktop/Projects/DICE/Hardware/FPGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5517BE4B-8F3E-B14D-862F-1EE9A6B7B3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E502CD-A068-D94C-B9BF-5D52F2BFB9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42420" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{C2CD008A-9FEF-3F4B-96F1-FC83B9A77B06}"/>
   </bookViews>
